--- a/test.xlsx
+++ b/test.xlsx
@@ -89,7 +89,7 @@
     <t>auditor 의견</t>
   </si>
   <si>
-    <t>scan 일자</t>
+    <t>scan 시간</t>
   </si>
   <si>
     <t>High</t>
@@ -168,7 +168,7 @@
     <t>823FE039-A7FE-4AAD-B976-9EC53FFE4A59</t>
   </si>
   <si>
-    <t>Wed Apr 17 20:19:32 KST 2024</t>
+    <t>Wed Apr 17 15:03:30 KST 2024</t>
   </si>
   <si>
     <t>Critical</t>

--- a/test.xlsx
+++ b/test.xlsx
@@ -89,7 +89,7 @@
     <t>auditor 의견</t>
   </si>
   <si>
-    <t>scan 시간</t>
+    <t>스캔시간</t>
   </si>
   <si>
     <t>High</t>
@@ -168,7 +168,7 @@
     <t>823FE039-A7FE-4AAD-B976-9EC53FFE4A59</t>
   </si>
   <si>
-    <t>Wed Apr 17 15:03:30 KST 2024</t>
+    <t>Wed Apr 17 17:37:17 KST 2024</t>
   </si>
   <si>
     <t>Critical</t>

--- a/test.xlsx
+++ b/test.xlsx
@@ -168,7 +168,7 @@
     <t>823FE039-A7FE-4AAD-B976-9EC53FFE4A59</t>
   </si>
   <si>
-    <t>Wed Apr 17 17:37:17 KST 2024</t>
+    <t>Wed Apr 17 19:43:30 KST 2024</t>
   </si>
   <si>
     <t>Critical</t>
@@ -2196,7 +2196,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" ht="0.0" customHeight="true">
+    <row r="2" ht="15.0" customHeight="true">
       <c r="A2" t="s" s="1">
         <v>25</v>
       </c>

--- a/test.xlsx
+++ b/test.xlsx
@@ -168,7 +168,7 @@
     <t>823FE039-A7FE-4AAD-B976-9EC53FFE4A59</t>
   </si>
   <si>
-    <t>Wed Apr 17 19:43:30 KST 2024</t>
+    <t>Wed Apr 17 14:13:45 KST 2024</t>
   </si>
   <si>
     <t>Critical</t>

--- a/test.xlsx
+++ b/test.xlsx
@@ -168,7 +168,7 @@
     <t>823FE039-A7FE-4AAD-B976-9EC53FFE4A59</t>
   </si>
   <si>
-    <t>Wed Apr 17 14:13:45 KST 2024</t>
+    <t>Wed Apr 17 15:48:42 KST 2024</t>
   </si>
   <si>
     <t>Critical</t>
@@ -2077,7 +2077,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -2086,113 +2086,113 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Z26"/>
+  <dimension ref="A1:Y26"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" hidden="false" width="7.2109375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" hidden="false" width="7.2109375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" hidden="false" width="33.49609375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" hidden="false" width="52.87109375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" hidden="false" width="136.82421875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" hidden="false" width="38.39453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" hidden="false" width="13.1796875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" hidden="false" width="6.01171875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" hidden="false" width="6.01171875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" hidden="false" width="27.91796875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" hidden="false" width="44.05859375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" hidden="false" width="114.0234375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" hidden="false" width="31.99609375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" hidden="false" width="10.984375" customWidth="true" bestFit="true"/>
     <col min="8" max="8" hidden="false" width="39.0625" customWidth="true"/>
-    <col min="9" max="9" hidden="false" width="77.2421875" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" hidden="false" width="136.82421875" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" hidden="false" width="32.421875" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" hidden="false" width="12.06640625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" hidden="false" width="64.3671875" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" hidden="false" width="114.0234375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" hidden="false" width="27.01953125" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" hidden="false" width="10.0546875" customWidth="true" bestFit="true"/>
     <col min="13" max="13" hidden="false" width="39.0625" customWidth="true"/>
-    <col min="14" max="14" hidden="false" width="61.984375" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" hidden="false" width="51.65625" customWidth="true" bestFit="true"/>
     <col min="15" max="15" hidden="false" width="39.0625" customWidth="true"/>
     <col min="16" max="16" hidden="false" width="39.0625" customWidth="true"/>
     <col min="17" max="17" hidden="false" width="39.0625" customWidth="true"/>
     <col min="18" max="18" hidden="false" width="39.0625" customWidth="true"/>
     <col min="19" max="19" hidden="false" width="39.0625" customWidth="true"/>
-    <col min="20" max="20" hidden="false" width="38.44140625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" hidden="false" width="42.16796875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" hidden="false" width="10.296875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" hidden="false" width="11.4140625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" hidden="false" width="10.296875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" hidden="false" width="28.7109375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" hidden="false" width="32.03515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" hidden="false" width="35.14453125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" hidden="false" width="8.58203125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" hidden="false" width="9.51171875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" hidden="false" width="8.58203125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" hidden="false" width="23.92578125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" t="s" s="0">
         <v>24</v>
       </c>
     </row>
